--- a/data/output/FV2404_FV2310/UTILMD/55142.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55142.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10958" uniqueCount="764">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10979" uniqueCount="764">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2524,6 +2524,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U490" totalsRowShown="0">
+  <autoFilter ref="A1:U490"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2813,7 +2843,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U490"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -26056,5 +26089,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55142.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55142.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13373" uniqueCount="1243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13171" uniqueCount="1243">
   <si>
     <t>#</t>
   </si>
@@ -10596,46 +10596,44 @@
       <c r="V121" s="9"/>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="5" t="s">
         <v>878</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2" t="s">
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="K122" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="L122" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M122" s="2" t="s">
+      <c r="L122" s="7"/>
+      <c r="M122" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N122" s="2" t="s">
+      <c r="N122" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="O122" s="2"/>
-      <c r="P122" s="2"/>
-      <c r="Q122" s="2"/>
-      <c r="R122" s="2"/>
-      <c r="S122" s="2"/>
-      <c r="T122" s="2"/>
-      <c r="U122" s="2" t="s">
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="V122" s="2" t="s">
+      <c r="V122" s="5" t="s">
         <v>585</v>
       </c>
     </row>
@@ -10906,44 +10904,42 @@
       </c>
     </row>
     <row r="128" spans="1:22">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2" t="s">
+      <c r="C128" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="K128" s="2"/>
-      <c r="L128" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M128" s="2" t="s">
+      <c r="K128" s="5"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N128" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
-      <c r="R128" s="2"/>
-      <c r="S128" s="2"/>
-      <c r="T128" s="2"/>
-      <c r="U128" s="2" t="s">
+      <c r="N128" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5"/>
+      <c r="S128" s="5"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="V128" s="2"/>
+      <c r="V128" s="5"/>
     </row>
     <row r="129" spans="1:22">
       <c r="A129" s="2" t="s">
@@ -11135,9 +11131,7 @@
         <v>496</v>
       </c>
       <c r="K132" s="2"/>
-      <c r="L132" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L132" s="7"/>
       <c r="M132" s="2" t="s">
         <v>52</v>
       </c>
@@ -11164,46 +11158,44 @@
       <c r="V132" s="2"/>
     </row>
     <row r="133" spans="1:22">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2" t="s">
+      <c r="C133" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="K133" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="L133" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M133" s="2" t="s">
+      <c r="L133" s="7"/>
+      <c r="M133" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N133" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
-      <c r="T133" s="2"/>
-      <c r="U133" s="2" t="s">
+      <c r="N133" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="5"/>
+      <c r="S133" s="5"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="V133" s="2" t="s">
+      <c r="V133" s="5" t="s">
         <v>581</v>
       </c>
     </row>
@@ -11875,9 +11867,7 @@
         <v>496</v>
       </c>
       <c r="K146" s="2"/>
-      <c r="L146" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L146" s="7"/>
       <c r="M146" s="2" t="s">
         <v>49</v>
       </c>
@@ -12032,46 +12022,44 @@
       <c r="V149" s="9"/>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="5" t="s">
         <v>905</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2" t="s">
+      <c r="C150" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="K150" s="2" t="s">
+      <c r="K150" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="L150" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M150" s="2" t="s">
+      <c r="L150" s="7"/>
+      <c r="M150" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N150" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
-      <c r="Q150" s="2"/>
-      <c r="R150" s="2"/>
-      <c r="S150" s="2"/>
-      <c r="T150" s="2"/>
-      <c r="U150" s="2" t="s">
+      <c r="N150" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="V150" s="2" t="s">
+      <c r="V150" s="5" t="s">
         <v>581</v>
       </c>
     </row>
@@ -12342,46 +12330,44 @@
       </c>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2" t="s">
+      <c r="C156" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="L156" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M156" s="2" t="s">
+      <c r="L156" s="7"/>
+      <c r="M156" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N156" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-      <c r="Q156" s="2"/>
-      <c r="R156" s="2"/>
-      <c r="S156" s="2"/>
-      <c r="T156" s="2"/>
-      <c r="U156" s="2" t="s">
+      <c r="N156" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="V156" s="2" t="s">
+      <c r="V156" s="5" t="s">
         <v>581</v>
       </c>
     </row>
@@ -12621,9 +12607,7 @@
         <v>496</v>
       </c>
       <c r="K161" s="2"/>
-      <c r="L161" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L161" s="7"/>
       <c r="M161" s="2" t="s">
         <v>56</v>
       </c>
@@ -12677,9 +12661,7 @@
         <v>496</v>
       </c>
       <c r="K162" s="2"/>
-      <c r="L162" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L162" s="7"/>
       <c r="M162" s="2" t="s">
         <v>56</v>
       </c>
@@ -12733,9 +12715,7 @@
         <v>496</v>
       </c>
       <c r="K163" s="2"/>
-      <c r="L163" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L163" s="7"/>
       <c r="M163" s="2" t="s">
         <v>56</v>
       </c>
@@ -12897,9 +12877,7 @@
         <v>524</v>
       </c>
       <c r="K166" s="2"/>
-      <c r="L166" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L166" s="7"/>
       <c r="M166" s="2" t="s">
         <v>57</v>
       </c>
@@ -12955,9 +12933,7 @@
       <c r="K167" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="L167" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L167" s="7"/>
       <c r="M167" s="2" t="s">
         <v>57</v>
       </c>
@@ -12986,44 +12962,42 @@
       </c>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="5" t="s">
         <v>922</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2" t="s">
+      <c r="C168" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="K168" s="2"/>
-      <c r="L168" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M168" s="2" t="s">
+      <c r="K168" s="5"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N168" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" s="2"/>
-      <c r="R168" s="2"/>
-      <c r="S168" s="2"/>
-      <c r="T168" s="2"/>
-      <c r="U168" s="2" t="s">
+      <c r="N168" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
+      <c r="R168" s="5"/>
+      <c r="S168" s="5"/>
+      <c r="T168" s="5"/>
+      <c r="U168" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="V168" s="2"/>
+      <c r="V168" s="5"/>
     </row>
     <row r="169" spans="1:22">
       <c r="A169" s="2" t="s">
@@ -13261,9 +13235,7 @@
         <v>496</v>
       </c>
       <c r="K173" s="2"/>
-      <c r="L173" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L173" s="7"/>
       <c r="M173" s="2" t="s">
         <v>58</v>
       </c>
@@ -13317,9 +13289,7 @@
         <v>496</v>
       </c>
       <c r="K174" s="2"/>
-      <c r="L174" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L174" s="7"/>
       <c r="M174" s="2" t="s">
         <v>58</v>
       </c>
@@ -13346,44 +13316,42 @@
       <c r="V174" s="2"/>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2" t="s">
+      <c r="C175" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="K175" s="2"/>
-      <c r="L175" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M175" s="2" t="s">
+      <c r="K175" s="5"/>
+      <c r="L175" s="7"/>
+      <c r="M175" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N175" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
-      <c r="Q175" s="2"/>
-      <c r="R175" s="2"/>
-      <c r="S175" s="2"/>
-      <c r="T175" s="2"/>
-      <c r="U175" s="2" t="s">
+      <c r="N175" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O175" s="5"/>
+      <c r="P175" s="5"/>
+      <c r="Q175" s="5"/>
+      <c r="R175" s="5"/>
+      <c r="S175" s="5"/>
+      <c r="T175" s="5"/>
+      <c r="U175" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="V175" s="2"/>
+      <c r="V175" s="5"/>
     </row>
     <row r="176" spans="1:22">
       <c r="A176" s="2" t="s">
@@ -13517,9 +13485,7 @@
         <v>499</v>
       </c>
       <c r="K178" s="2"/>
-      <c r="L178" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L178" s="7"/>
       <c r="M178" s="2" t="s">
         <v>59</v>
       </c>
@@ -13681,9 +13647,7 @@
         <v>499</v>
       </c>
       <c r="K181" s="2"/>
-      <c r="L181" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L181" s="7"/>
       <c r="M181" s="2" t="s">
         <v>59</v>
       </c>
@@ -13737,9 +13701,7 @@
         <v>499</v>
       </c>
       <c r="K182" s="2"/>
-      <c r="L182" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L182" s="7"/>
       <c r="M182" s="2" t="s">
         <v>59</v>
       </c>
@@ -13766,46 +13728,44 @@
       <c r="V182" s="2"/>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="2" t="s">
+      <c r="C183" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="K183" s="2" t="s">
+      <c r="K183" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="L183" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M183" s="2" t="s">
+      <c r="L183" s="7"/>
+      <c r="M183" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N183" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O183" s="2"/>
-      <c r="P183" s="2"/>
-      <c r="Q183" s="2"/>
-      <c r="R183" s="2"/>
-      <c r="S183" s="2"/>
-      <c r="T183" s="2"/>
-      <c r="U183" s="2" t="s">
+      <c r="N183" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O183" s="5"/>
+      <c r="P183" s="5"/>
+      <c r="Q183" s="5"/>
+      <c r="R183" s="5"/>
+      <c r="S183" s="5"/>
+      <c r="T183" s="5"/>
+      <c r="U183" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="V183" s="2" t="s">
+      <c r="V183" s="5" t="s">
         <v>590</v>
       </c>
     </row>
@@ -14103,9 +14063,7 @@
         <v>496</v>
       </c>
       <c r="K189" s="2"/>
-      <c r="L189" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L189" s="7"/>
       <c r="M189" s="2" t="s">
         <v>61</v>
       </c>
@@ -14323,9 +14281,7 @@
       <c r="K193" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="L193" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L193" s="7"/>
       <c r="M193" s="2" t="s">
         <v>62</v>
       </c>
@@ -14543,9 +14499,7 @@
         <v>496</v>
       </c>
       <c r="K197" s="2"/>
-      <c r="L197" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L197" s="7"/>
       <c r="M197" s="2" t="s">
         <v>63</v>
       </c>
@@ -14761,9 +14715,7 @@
         <v>496</v>
       </c>
       <c r="K201" s="2"/>
-      <c r="L201" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L201" s="7"/>
       <c r="M201" s="2" t="s">
         <v>64</v>
       </c>
@@ -14983,9 +14935,7 @@
         <v>496</v>
       </c>
       <c r="K205" s="2"/>
-      <c r="L205" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L205" s="7"/>
       <c r="M205" s="2" t="s">
         <v>65</v>
       </c>
@@ -15012,46 +14962,44 @@
       <c r="V205" s="2"/>
     </row>
     <row r="206" spans="1:22">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="5" t="s">
         <v>960</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
-      <c r="I206" s="2"/>
-      <c r="J206" s="2" t="s">
+      <c r="C206" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="K206" s="2" t="s">
+      <c r="K206" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="L206" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M206" s="2" t="s">
+      <c r="L206" s="7"/>
+      <c r="M206" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N206" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O206" s="2"/>
-      <c r="P206" s="2"/>
-      <c r="Q206" s="2"/>
-      <c r="R206" s="2"/>
-      <c r="S206" s="2"/>
-      <c r="T206" s="2"/>
-      <c r="U206" s="2" t="s">
+      <c r="N206" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O206" s="5"/>
+      <c r="P206" s="5"/>
+      <c r="Q206" s="5"/>
+      <c r="R206" s="5"/>
+      <c r="S206" s="5"/>
+      <c r="T206" s="5"/>
+      <c r="U206" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="V206" s="2" t="s">
+      <c r="V206" s="5" t="s">
         <v>593</v>
       </c>
     </row>
@@ -15291,9 +15239,7 @@
         <v>496</v>
       </c>
       <c r="K211" s="2"/>
-      <c r="L211" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L211" s="7"/>
       <c r="M211" s="2" t="s">
         <v>66</v>
       </c>
@@ -15320,46 +15266,44 @@
       <c r="V211" s="2"/>
     </row>
     <row r="212" spans="1:22">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
-      <c r="J212" s="2" t="s">
+      <c r="C212" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="K212" s="2" t="s">
+      <c r="K212" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="L212" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M212" s="2" t="s">
+      <c r="L212" s="7"/>
+      <c r="M212" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N212" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O212" s="2"/>
-      <c r="P212" s="2"/>
-      <c r="Q212" s="2"/>
-      <c r="R212" s="2"/>
-      <c r="S212" s="2"/>
-      <c r="T212" s="2"/>
-      <c r="U212" s="2" t="s">
+      <c r="N212" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O212" s="5"/>
+      <c r="P212" s="5"/>
+      <c r="Q212" s="5"/>
+      <c r="R212" s="5"/>
+      <c r="S212" s="5"/>
+      <c r="T212" s="5"/>
+      <c r="U212" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="V212" s="2" t="s">
+      <c r="V212" s="5" t="s">
         <v>593</v>
       </c>
     </row>
@@ -15553,9 +15497,7 @@
         <v>496</v>
       </c>
       <c r="K216" s="2"/>
-      <c r="L216" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L216" s="7"/>
       <c r="M216" s="2" t="s">
         <v>67</v>
       </c>
@@ -15609,9 +15551,7 @@
         <v>496</v>
       </c>
       <c r="K217" s="2"/>
-      <c r="L217" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L217" s="7"/>
       <c r="M217" s="2" t="s">
         <v>67</v>
       </c>
@@ -15638,46 +15578,44 @@
       <c r="V217" s="2"/>
     </row>
     <row r="218" spans="1:22">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2" t="s">
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="K218" s="2" t="s">
+      <c r="K218" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="L218" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M218" s="2" t="s">
+      <c r="L218" s="7"/>
+      <c r="M218" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N218" s="2" t="s">
+      <c r="N218" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="O218" s="2"/>
-      <c r="P218" s="2"/>
-      <c r="Q218" s="2"/>
-      <c r="R218" s="2"/>
-      <c r="S218" s="2"/>
-      <c r="T218" s="2"/>
-      <c r="U218" s="2" t="s">
+      <c r="O218" s="5"/>
+      <c r="P218" s="5"/>
+      <c r="Q218" s="5"/>
+      <c r="R218" s="5"/>
+      <c r="S218" s="5"/>
+      <c r="T218" s="5"/>
+      <c r="U218" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="V218" s="2" t="s">
+      <c r="V218" s="5" t="s">
         <v>594</v>
       </c>
     </row>
@@ -15944,44 +15882,42 @@
       <c r="V223" s="2"/>
     </row>
     <row r="224" spans="1:22">
-      <c r="A224" s="2" t="s">
+      <c r="A224" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="2" t="s">
+      <c r="C224" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
+      <c r="J224" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="K224" s="2"/>
-      <c r="L224" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M224" s="2" t="s">
+      <c r="K224" s="5"/>
+      <c r="L224" s="7"/>
+      <c r="M224" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N224" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O224" s="2"/>
-      <c r="P224" s="2"/>
-      <c r="Q224" s="2"/>
-      <c r="R224" s="2"/>
-      <c r="S224" s="2"/>
-      <c r="T224" s="2"/>
-      <c r="U224" s="2" t="s">
+      <c r="N224" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O224" s="5"/>
+      <c r="P224" s="5"/>
+      <c r="Q224" s="5"/>
+      <c r="R224" s="5"/>
+      <c r="S224" s="5"/>
+      <c r="T224" s="5"/>
+      <c r="U224" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="V224" s="2"/>
+      <c r="V224" s="5"/>
     </row>
     <row r="225" spans="1:22">
       <c r="A225" s="2" t="s">
@@ -16219,9 +16155,7 @@
         <v>499</v>
       </c>
       <c r="K229" s="2"/>
-      <c r="L229" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L229" s="7"/>
       <c r="M229" s="2" t="s">
         <v>71</v>
       </c>
@@ -16275,9 +16209,7 @@
         <v>499</v>
       </c>
       <c r="K230" s="2"/>
-      <c r="L230" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L230" s="7"/>
       <c r="M230" s="2" t="s">
         <v>71</v>
       </c>
@@ -16331,9 +16263,7 @@
         <v>499</v>
       </c>
       <c r="K231" s="2"/>
-      <c r="L231" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L231" s="7"/>
       <c r="M231" s="2" t="s">
         <v>71</v>
       </c>
@@ -16387,9 +16317,7 @@
         <v>499</v>
       </c>
       <c r="K232" s="2"/>
-      <c r="L232" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L232" s="7"/>
       <c r="M232" s="2" t="s">
         <v>71</v>
       </c>
@@ -16547,9 +16475,7 @@
         <v>496</v>
       </c>
       <c r="K235" s="2"/>
-      <c r="L235" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L235" s="7"/>
       <c r="M235" s="2" t="s">
         <v>72</v>
       </c>
@@ -16711,9 +16637,7 @@
         <v>496</v>
       </c>
       <c r="K238" s="2"/>
-      <c r="L238" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L238" s="7"/>
       <c r="M238" s="2" t="s">
         <v>73</v>
       </c>
@@ -16767,9 +16691,7 @@
         <v>496</v>
       </c>
       <c r="K239" s="2"/>
-      <c r="L239" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L239" s="7"/>
       <c r="M239" s="2" t="s">
         <v>73</v>
       </c>
@@ -16931,9 +16853,7 @@
         <v>496</v>
       </c>
       <c r="K242" s="2"/>
-      <c r="L242" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L242" s="7"/>
       <c r="M242" s="2" t="s">
         <v>74</v>
       </c>
@@ -16987,9 +16907,7 @@
         <v>496</v>
       </c>
       <c r="K243" s="2"/>
-      <c r="L243" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L243" s="7"/>
       <c r="M243" s="2" t="s">
         <v>74</v>
       </c>
@@ -17016,46 +16934,44 @@
       <c r="V243" s="2"/>
     </row>
     <row r="244" spans="1:22">
-      <c r="A244" s="2" t="s">
+      <c r="A244" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-      <c r="G244" s="2"/>
-      <c r="H244" s="2"/>
-      <c r="I244" s="2"/>
-      <c r="J244" s="2" t="s">
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="K244" s="2" t="s">
+      <c r="K244" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="L244" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M244" s="2" t="s">
+      <c r="L244" s="7"/>
+      <c r="M244" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N244" s="2" t="s">
+      <c r="N244" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="O244" s="2"/>
-      <c r="P244" s="2"/>
-      <c r="Q244" s="2"/>
-      <c r="R244" s="2"/>
-      <c r="S244" s="2"/>
-      <c r="T244" s="2"/>
-      <c r="U244" s="2" t="s">
+      <c r="O244" s="5"/>
+      <c r="P244" s="5"/>
+      <c r="Q244" s="5"/>
+      <c r="R244" s="5"/>
+      <c r="S244" s="5"/>
+      <c r="T244" s="5"/>
+      <c r="U244" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="V244" s="2" t="s">
+      <c r="V244" s="5" t="s">
         <v>597</v>
       </c>
     </row>
@@ -17388,46 +17304,44 @@
       <c r="V250" s="2"/>
     </row>
     <row r="251" spans="1:22">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
-      <c r="J251" s="2" t="s">
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="K251" s="2" t="s">
+      <c r="K251" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="L251" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M251" s="2" t="s">
+      <c r="L251" s="7"/>
+      <c r="M251" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N251" s="2" t="s">
+      <c r="N251" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="O251" s="2"/>
-      <c r="P251" s="2"/>
-      <c r="Q251" s="2"/>
-      <c r="R251" s="2"/>
-      <c r="S251" s="2"/>
-      <c r="T251" s="2"/>
-      <c r="U251" s="2" t="s">
+      <c r="O251" s="5"/>
+      <c r="P251" s="5"/>
+      <c r="Q251" s="5"/>
+      <c r="R251" s="5"/>
+      <c r="S251" s="5"/>
+      <c r="T251" s="5"/>
+      <c r="U251" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="V251" s="2" t="s">
+      <c r="V251" s="5" t="s">
         <v>599</v>
       </c>
     </row>
@@ -17694,44 +17608,42 @@
       <c r="V256" s="2"/>
     </row>
     <row r="257" spans="1:22">
-      <c r="A257" s="2" t="s">
+      <c r="A257" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
-      <c r="F257" s="2"/>
-      <c r="G257" s="2"/>
-      <c r="H257" s="2"/>
-      <c r="I257" s="2"/>
-      <c r="J257" s="2" t="s">
+      <c r="C257" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="5"/>
+      <c r="I257" s="5"/>
+      <c r="J257" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="K257" s="2"/>
-      <c r="L257" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M257" s="2" t="s">
+      <c r="K257" s="5"/>
+      <c r="L257" s="7"/>
+      <c r="M257" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N257" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O257" s="2"/>
-      <c r="P257" s="2"/>
-      <c r="Q257" s="2"/>
-      <c r="R257" s="2"/>
-      <c r="S257" s="2"/>
-      <c r="T257" s="2"/>
-      <c r="U257" s="2" t="s">
+      <c r="N257" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O257" s="5"/>
+      <c r="P257" s="5"/>
+      <c r="Q257" s="5"/>
+      <c r="R257" s="5"/>
+      <c r="S257" s="5"/>
+      <c r="T257" s="5"/>
+      <c r="U257" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="V257" s="2"/>
+      <c r="V257" s="5"/>
     </row>
     <row r="258" spans="1:22">
       <c r="A258" s="2" t="s">
@@ -17969,9 +17881,7 @@
         <v>496</v>
       </c>
       <c r="K262" s="2"/>
-      <c r="L262" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L262" s="7"/>
       <c r="M262" s="2" t="s">
         <v>79</v>
       </c>
@@ -18025,9 +17935,7 @@
         <v>496</v>
       </c>
       <c r="K263" s="2"/>
-      <c r="L263" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L263" s="7"/>
       <c r="M263" s="2" t="s">
         <v>79</v>
       </c>
@@ -18081,9 +17989,7 @@
         <v>496</v>
       </c>
       <c r="K264" s="2"/>
-      <c r="L264" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L264" s="7"/>
       <c r="M264" s="2" t="s">
         <v>79</v>
       </c>
@@ -18137,9 +18043,7 @@
         <v>496</v>
       </c>
       <c r="K265" s="2"/>
-      <c r="L265" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L265" s="7"/>
       <c r="M265" s="2" t="s">
         <v>79</v>
       </c>
@@ -18193,9 +18097,7 @@
         <v>496</v>
       </c>
       <c r="K266" s="2"/>
-      <c r="L266" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L266" s="7"/>
       <c r="M266" s="2" t="s">
         <v>79</v>
       </c>
@@ -18249,9 +18151,7 @@
         <v>496</v>
       </c>
       <c r="K267" s="2"/>
-      <c r="L267" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L267" s="7"/>
       <c r="M267" s="2" t="s">
         <v>79</v>
       </c>
@@ -18305,9 +18205,7 @@
         <v>496</v>
       </c>
       <c r="K268" s="2"/>
-      <c r="L268" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L268" s="7"/>
       <c r="M268" s="2" t="s">
         <v>79</v>
       </c>
@@ -18450,46 +18348,44 @@
       </c>
     </row>
     <row r="271" spans="1:22">
-      <c r="A271" s="2" t="s">
+      <c r="A271" s="5" t="s">
         <v>1025</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2" t="s">
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
+      <c r="J271" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="K271" s="2" t="s">
+      <c r="K271" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="L271" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M271" s="2" t="s">
+      <c r="L271" s="7"/>
+      <c r="M271" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N271" s="2" t="s">
+      <c r="N271" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="O271" s="2"/>
-      <c r="P271" s="2"/>
-      <c r="Q271" s="2"/>
-      <c r="R271" s="2"/>
-      <c r="S271" s="2"/>
-      <c r="T271" s="2"/>
-      <c r="U271" s="2" t="s">
+      <c r="O271" s="5"/>
+      <c r="P271" s="5"/>
+      <c r="Q271" s="5"/>
+      <c r="R271" s="5"/>
+      <c r="S271" s="5"/>
+      <c r="T271" s="5"/>
+      <c r="U271" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="V271" s="2" t="s">
+      <c r="V271" s="5" t="s">
         <v>599</v>
       </c>
     </row>
@@ -18756,44 +18652,42 @@
       <c r="V276" s="2"/>
     </row>
     <row r="277" spans="1:22">
-      <c r="A277" s="2" t="s">
+      <c r="A277" s="5" t="s">
         <v>1031</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
-      <c r="J277" s="2" t="s">
+      <c r="C277" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="K277" s="2"/>
-      <c r="L277" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M277" s="2" t="s">
+      <c r="K277" s="5"/>
+      <c r="L277" s="7"/>
+      <c r="M277" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N277" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O277" s="2"/>
-      <c r="P277" s="2"/>
-      <c r="Q277" s="2"/>
-      <c r="R277" s="2"/>
-      <c r="S277" s="2"/>
-      <c r="T277" s="2"/>
-      <c r="U277" s="2" t="s">
+      <c r="N277" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O277" s="5"/>
+      <c r="P277" s="5"/>
+      <c r="Q277" s="5"/>
+      <c r="R277" s="5"/>
+      <c r="S277" s="5"/>
+      <c r="T277" s="5"/>
+      <c r="U277" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="V277" s="2"/>
+      <c r="V277" s="5"/>
     </row>
     <row r="278" spans="1:22">
       <c r="A278" s="2" t="s">
@@ -18985,9 +18879,7 @@
         <v>496</v>
       </c>
       <c r="K281" s="2"/>
-      <c r="L281" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L281" s="7"/>
       <c r="M281" s="2" t="s">
         <v>81</v>
       </c>
@@ -19014,46 +18906,44 @@
       <c r="V281" s="2"/>
     </row>
     <row r="282" spans="1:22">
-      <c r="A282" s="2" t="s">
+      <c r="A282" s="5" t="s">
         <v>1036</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
-      <c r="F282" s="2"/>
-      <c r="G282" s="2"/>
-      <c r="H282" s="2"/>
-      <c r="I282" s="2"/>
-      <c r="J282" s="2" t="s">
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="5"/>
+      <c r="I282" s="5"/>
+      <c r="J282" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="K282" s="2" t="s">
+      <c r="K282" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="L282" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M282" s="2" t="s">
+      <c r="L282" s="7"/>
+      <c r="M282" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N282" s="2" t="s">
+      <c r="N282" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="O282" s="2"/>
-      <c r="P282" s="2"/>
-      <c r="Q282" s="2"/>
-      <c r="R282" s="2"/>
-      <c r="S282" s="2"/>
-      <c r="T282" s="2"/>
-      <c r="U282" s="2" t="s">
+      <c r="O282" s="5"/>
+      <c r="P282" s="5"/>
+      <c r="Q282" s="5"/>
+      <c r="R282" s="5"/>
+      <c r="S282" s="5"/>
+      <c r="T282" s="5"/>
+      <c r="U282" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="V282" s="2" t="s">
+      <c r="V282" s="5" t="s">
         <v>599</v>
       </c>
     </row>
@@ -19181,9 +19071,7 @@
         <v>495</v>
       </c>
       <c r="K285" s="2"/>
-      <c r="L285" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L285" s="7"/>
       <c r="M285" s="2" t="s">
         <v>82</v>
       </c>
@@ -19732,46 +19620,44 @@
       </c>
     </row>
     <row r="296" spans="1:22">
-      <c r="A296" s="2" t="s">
+      <c r="A296" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B296" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C296" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D296" s="2"/>
-      <c r="E296" s="2"/>
-      <c r="F296" s="2"/>
-      <c r="G296" s="2"/>
-      <c r="H296" s="2"/>
-      <c r="I296" s="2"/>
-      <c r="J296" s="2" t="s">
+      <c r="D296" s="5"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="5"/>
+      <c r="I296" s="5"/>
+      <c r="J296" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="K296" s="2" t="s">
+      <c r="K296" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="L296" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M296" s="2" t="s">
+      <c r="L296" s="7"/>
+      <c r="M296" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N296" s="2" t="s">
+      <c r="N296" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="O296" s="2"/>
-      <c r="P296" s="2"/>
-      <c r="Q296" s="2"/>
-      <c r="R296" s="2"/>
-      <c r="S296" s="2"/>
-      <c r="T296" s="2"/>
-      <c r="U296" s="2" t="s">
+      <c r="O296" s="5"/>
+      <c r="P296" s="5"/>
+      <c r="Q296" s="5"/>
+      <c r="R296" s="5"/>
+      <c r="S296" s="5"/>
+      <c r="T296" s="5"/>
+      <c r="U296" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="V296" s="2" t="s">
+      <c r="V296" s="5" t="s">
         <v>604</v>
       </c>
     </row>
@@ -20302,46 +20188,44 @@
       <c r="V306" s="2"/>
     </row>
     <row r="307" spans="1:22">
-      <c r="A307" s="2" t="s">
+      <c r="A307" s="5" t="s">
         <v>1059</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C307" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D307" s="2"/>
-      <c r="E307" s="2"/>
-      <c r="F307" s="2"/>
-      <c r="G307" s="2"/>
-      <c r="H307" s="2"/>
-      <c r="I307" s="2"/>
-      <c r="J307" s="2" t="s">
+      <c r="C307" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="5"/>
+      <c r="J307" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="K307" s="2" t="s">
+      <c r="K307" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="L307" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M307" s="2" t="s">
+      <c r="L307" s="7"/>
+      <c r="M307" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N307" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O307" s="2"/>
-      <c r="P307" s="2"/>
-      <c r="Q307" s="2"/>
-      <c r="R307" s="2"/>
-      <c r="S307" s="2"/>
-      <c r="T307" s="2"/>
-      <c r="U307" s="2" t="s">
+      <c r="N307" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O307" s="5"/>
+      <c r="P307" s="5"/>
+      <c r="Q307" s="5"/>
+      <c r="R307" s="5"/>
+      <c r="S307" s="5"/>
+      <c r="T307" s="5"/>
+      <c r="U307" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="V307" s="2" t="s">
+      <c r="V307" s="5" t="s">
         <v>606</v>
       </c>
     </row>
@@ -20581,9 +20465,7 @@
         <v>496</v>
       </c>
       <c r="K312" s="2"/>
-      <c r="L312" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L312" s="7"/>
       <c r="M312" s="2" t="s">
         <v>66</v>
       </c>
@@ -20610,44 +20492,42 @@
       <c r="V312" s="2"/>
     </row>
     <row r="313" spans="1:22">
-      <c r="A313" s="2" t="s">
+      <c r="A313" s="5" t="s">
         <v>1065</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B313" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C313" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D313" s="2"/>
-      <c r="E313" s="2"/>
-      <c r="F313" s="2"/>
-      <c r="G313" s="2"/>
-      <c r="H313" s="2"/>
-      <c r="I313" s="2"/>
-      <c r="J313" s="2" t="s">
+      <c r="C313" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D313" s="5"/>
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="5"/>
+      <c r="I313" s="5"/>
+      <c r="J313" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="K313" s="2"/>
-      <c r="L313" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M313" s="2" t="s">
+      <c r="K313" s="5"/>
+      <c r="L313" s="7"/>
+      <c r="M313" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N313" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O313" s="2"/>
-      <c r="P313" s="2"/>
-      <c r="Q313" s="2"/>
-      <c r="R313" s="2"/>
-      <c r="S313" s="2"/>
-      <c r="T313" s="2"/>
-      <c r="U313" s="2" t="s">
+      <c r="N313" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O313" s="5"/>
+      <c r="P313" s="5"/>
+      <c r="Q313" s="5"/>
+      <c r="R313" s="5"/>
+      <c r="S313" s="5"/>
+      <c r="T313" s="5"/>
+      <c r="U313" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="V313" s="2"/>
+      <c r="V313" s="5"/>
     </row>
     <row r="314" spans="1:22">
       <c r="A314" s="2" t="s">
@@ -20839,9 +20719,7 @@
         <v>496</v>
       </c>
       <c r="K317" s="2"/>
-      <c r="L317" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L317" s="7"/>
       <c r="M317" s="2" t="s">
         <v>86</v>
       </c>
@@ -20868,46 +20746,44 @@
       <c r="V317" s="2"/>
     </row>
     <row r="318" spans="1:22">
-      <c r="A318" s="2" t="s">
+      <c r="A318" s="5" t="s">
         <v>1070</v>
       </c>
-      <c r="B318" s="2" t="s">
+      <c r="B318" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C318" s="2" t="s">
+      <c r="C318" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D318" s="2"/>
-      <c r="E318" s="2"/>
-      <c r="F318" s="2"/>
-      <c r="G318" s="2"/>
-      <c r="H318" s="2"/>
-      <c r="I318" s="2"/>
-      <c r="J318" s="2" t="s">
+      <c r="D318" s="5"/>
+      <c r="E318" s="5"/>
+      <c r="F318" s="5"/>
+      <c r="G318" s="5"/>
+      <c r="H318" s="5"/>
+      <c r="I318" s="5"/>
+      <c r="J318" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="K318" s="2" t="s">
+      <c r="K318" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="L318" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M318" s="2" t="s">
+      <c r="L318" s="7"/>
+      <c r="M318" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N318" s="2" t="s">
+      <c r="N318" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="O318" s="2"/>
-      <c r="P318" s="2"/>
-      <c r="Q318" s="2"/>
-      <c r="R318" s="2"/>
-      <c r="S318" s="2"/>
-      <c r="T318" s="2"/>
-      <c r="U318" s="2" t="s">
+      <c r="O318" s="5"/>
+      <c r="P318" s="5"/>
+      <c r="Q318" s="5"/>
+      <c r="R318" s="5"/>
+      <c r="S318" s="5"/>
+      <c r="T318" s="5"/>
+      <c r="U318" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="V318" s="2" t="s">
+      <c r="V318" s="5" t="s">
         <v>607</v>
       </c>
     </row>
@@ -22186,46 +22062,44 @@
       <c r="V343" s="2"/>
     </row>
     <row r="344" spans="1:22">
-      <c r="A344" s="2" t="s">
+      <c r="A344" s="5" t="s">
         <v>1096</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C344" s="2" t="s">
+      <c r="C344" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
-      <c r="F344" s="2"/>
-      <c r="G344" s="2"/>
-      <c r="H344" s="2"/>
-      <c r="I344" s="2"/>
-      <c r="J344" s="2" t="s">
+      <c r="D344" s="5"/>
+      <c r="E344" s="5"/>
+      <c r="F344" s="5"/>
+      <c r="G344" s="5"/>
+      <c r="H344" s="5"/>
+      <c r="I344" s="5"/>
+      <c r="J344" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="K344" s="2" t="s">
+      <c r="K344" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="L344" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M344" s="2" t="s">
+      <c r="L344" s="7"/>
+      <c r="M344" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N344" s="2" t="s">
+      <c r="N344" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="O344" s="2"/>
-      <c r="P344" s="2"/>
-      <c r="Q344" s="2"/>
-      <c r="R344" s="2"/>
-      <c r="S344" s="2"/>
-      <c r="T344" s="2"/>
-      <c r="U344" s="2" t="s">
+      <c r="O344" s="5"/>
+      <c r="P344" s="5"/>
+      <c r="Q344" s="5"/>
+      <c r="R344" s="5"/>
+      <c r="S344" s="5"/>
+      <c r="T344" s="5"/>
+      <c r="U344" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="V344" s="2" t="s">
+      <c r="V344" s="5" t="s">
         <v>613</v>
       </c>
     </row>
@@ -22446,46 +22320,44 @@
       <c r="V348" s="2"/>
     </row>
     <row r="349" spans="1:22">
-      <c r="A349" s="2" t="s">
+      <c r="A349" s="5" t="s">
         <v>1101</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="B349" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C349" s="2" t="s">
+      <c r="C349" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D349" s="2"/>
-      <c r="E349" s="2"/>
-      <c r="F349" s="2"/>
-      <c r="G349" s="2"/>
-      <c r="H349" s="2"/>
-      <c r="I349" s="2"/>
-      <c r="J349" s="2" t="s">
+      <c r="D349" s="5"/>
+      <c r="E349" s="5"/>
+      <c r="F349" s="5"/>
+      <c r="G349" s="5"/>
+      <c r="H349" s="5"/>
+      <c r="I349" s="5"/>
+      <c r="J349" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="K349" s="2" t="s">
+      <c r="K349" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="L349" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M349" s="2" t="s">
+      <c r="L349" s="7"/>
+      <c r="M349" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N349" s="2" t="s">
+      <c r="N349" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="O349" s="2"/>
-      <c r="P349" s="2"/>
-      <c r="Q349" s="2"/>
-      <c r="R349" s="2"/>
-      <c r="S349" s="2"/>
-      <c r="T349" s="2"/>
-      <c r="U349" s="2" t="s">
+      <c r="O349" s="5"/>
+      <c r="P349" s="5"/>
+      <c r="Q349" s="5"/>
+      <c r="R349" s="5"/>
+      <c r="S349" s="5"/>
+      <c r="T349" s="5"/>
+      <c r="U349" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="V349" s="2" t="s">
+      <c r="V349" s="5" t="s">
         <v>614</v>
       </c>
     </row>
@@ -22706,44 +22578,42 @@
       <c r="V353" s="2"/>
     </row>
     <row r="354" spans="1:22">
-      <c r="A354" s="2" t="s">
+      <c r="A354" s="5" t="s">
         <v>1106</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B354" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C354" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D354" s="2"/>
-      <c r="E354" s="2"/>
-      <c r="F354" s="2"/>
-      <c r="G354" s="2"/>
-      <c r="H354" s="2"/>
-      <c r="I354" s="2"/>
-      <c r="J354" s="2" t="s">
+      <c r="C354" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D354" s="5"/>
+      <c r="E354" s="5"/>
+      <c r="F354" s="5"/>
+      <c r="G354" s="5"/>
+      <c r="H354" s="5"/>
+      <c r="I354" s="5"/>
+      <c r="J354" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="K354" s="2"/>
-      <c r="L354" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M354" s="2" t="s">
+      <c r="K354" s="5"/>
+      <c r="L354" s="7"/>
+      <c r="M354" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N354" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O354" s="2"/>
-      <c r="P354" s="2"/>
-      <c r="Q354" s="2"/>
-      <c r="R354" s="2"/>
-      <c r="S354" s="2"/>
-      <c r="T354" s="2"/>
-      <c r="U354" s="2" t="s">
+      <c r="N354" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O354" s="5"/>
+      <c r="P354" s="5"/>
+      <c r="Q354" s="5"/>
+      <c r="R354" s="5"/>
+      <c r="S354" s="5"/>
+      <c r="T354" s="5"/>
+      <c r="U354" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="V354" s="2"/>
+      <c r="V354" s="5"/>
     </row>
     <row r="355" spans="1:22">
       <c r="A355" s="2" t="s">
@@ -22877,9 +22747,7 @@
         <v>496</v>
       </c>
       <c r="K357" s="2"/>
-      <c r="L357" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L357" s="7"/>
       <c r="M357" s="2" t="s">
         <v>96</v>
       </c>
@@ -22933,9 +22801,7 @@
         <v>496</v>
       </c>
       <c r="K358" s="2"/>
-      <c r="L358" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L358" s="7"/>
       <c r="M358" s="2" t="s">
         <v>96</v>
       </c>
@@ -23097,9 +22963,7 @@
         <v>499</v>
       </c>
       <c r="K361" s="2"/>
-      <c r="L361" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L361" s="7"/>
       <c r="M361" s="2" t="s">
         <v>71</v>
       </c>
@@ -23153,9 +23017,7 @@
         <v>499</v>
       </c>
       <c r="K362" s="2"/>
-      <c r="L362" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L362" s="7"/>
       <c r="M362" s="2" t="s">
         <v>71</v>
       </c>
@@ -23209,9 +23071,7 @@
         <v>499</v>
       </c>
       <c r="K363" s="2"/>
-      <c r="L363" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L363" s="7"/>
       <c r="M363" s="2" t="s">
         <v>71</v>
       </c>
@@ -23373,9 +23233,7 @@
         <v>496</v>
       </c>
       <c r="K366" s="2"/>
-      <c r="L366" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L366" s="7"/>
       <c r="M366" s="2" t="s">
         <v>73</v>
       </c>
@@ -23429,9 +23287,7 @@
         <v>496</v>
       </c>
       <c r="K367" s="2"/>
-      <c r="L367" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L367" s="7"/>
       <c r="M367" s="2" t="s">
         <v>73</v>
       </c>
@@ -23593,9 +23449,7 @@
         <v>496</v>
       </c>
       <c r="K370" s="2"/>
-      <c r="L370" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L370" s="7"/>
       <c r="M370" s="2" t="s">
         <v>74</v>
       </c>
@@ -23649,9 +23503,7 @@
         <v>496</v>
       </c>
       <c r="K371" s="2"/>
-      <c r="L371" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L371" s="7"/>
       <c r="M371" s="2" t="s">
         <v>74</v>
       </c>
@@ -23813,9 +23665,7 @@
         <v>496</v>
       </c>
       <c r="K374" s="2"/>
-      <c r="L374" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L374" s="7"/>
       <c r="M374" s="2" t="s">
         <v>97</v>
       </c>
@@ -23869,9 +23719,7 @@
         <v>496</v>
       </c>
       <c r="K375" s="2"/>
-      <c r="L375" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L375" s="7"/>
       <c r="M375" s="2" t="s">
         <v>97</v>
       </c>
@@ -23925,9 +23773,7 @@
         <v>496</v>
       </c>
       <c r="K376" s="2"/>
-      <c r="L376" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L376" s="7"/>
       <c r="M376" s="2" t="s">
         <v>97</v>
       </c>
@@ -23981,9 +23827,7 @@
         <v>496</v>
       </c>
       <c r="K377" s="2"/>
-      <c r="L377" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L377" s="7"/>
       <c r="M377" s="2" t="s">
         <v>97</v>
       </c>
@@ -24145,9 +23989,7 @@
         <v>496</v>
       </c>
       <c r="K380" s="2"/>
-      <c r="L380" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L380" s="7"/>
       <c r="M380" s="2" t="s">
         <v>98</v>
       </c>
@@ -24201,9 +24043,7 @@
         <v>496</v>
       </c>
       <c r="K381" s="2"/>
-      <c r="L381" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L381" s="7"/>
       <c r="M381" s="2" t="s">
         <v>98</v>
       </c>
@@ -24257,9 +24097,7 @@
         <v>496</v>
       </c>
       <c r="K382" s="2"/>
-      <c r="L382" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L382" s="7"/>
       <c r="M382" s="2" t="s">
         <v>98</v>
       </c>
@@ -24421,9 +24259,7 @@
         <v>496</v>
       </c>
       <c r="K385" s="2"/>
-      <c r="L385" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L385" s="7"/>
       <c r="M385" s="2" t="s">
         <v>99</v>
       </c>
@@ -24585,9 +24421,7 @@
         <v>496</v>
       </c>
       <c r="K388" s="2"/>
-      <c r="L388" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L388" s="7"/>
       <c r="M388" s="2" t="s">
         <v>100</v>
       </c>
@@ -24749,9 +24583,7 @@
         <v>496</v>
       </c>
       <c r="K391" s="2"/>
-      <c r="L391" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L391" s="7"/>
       <c r="M391" s="2" t="s">
         <v>101</v>
       </c>
@@ -24805,9 +24637,7 @@
         <v>496</v>
       </c>
       <c r="K392" s="2"/>
-      <c r="L392" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L392" s="7"/>
       <c r="M392" s="2" t="s">
         <v>101</v>
       </c>
@@ -24861,9 +24691,7 @@
         <v>496</v>
       </c>
       <c r="K393" s="2"/>
-      <c r="L393" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L393" s="7"/>
       <c r="M393" s="2" t="s">
         <v>101</v>
       </c>
@@ -25169,9 +24997,7 @@
         <v>496</v>
       </c>
       <c r="K399" s="2"/>
-      <c r="L399" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L399" s="7"/>
       <c r="M399" s="2" t="s">
         <v>102</v>
       </c>
@@ -25198,46 +25024,44 @@
       <c r="V399" s="2"/>
     </row>
     <row r="400" spans="1:22">
-      <c r="A400" s="2" t="s">
+      <c r="A400" s="5" t="s">
         <v>1152</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="B400" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C400" s="2" t="s">
+      <c r="C400" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D400" s="2"/>
-      <c r="E400" s="2"/>
-      <c r="F400" s="2"/>
-      <c r="G400" s="2"/>
-      <c r="H400" s="2"/>
-      <c r="I400" s="2"/>
-      <c r="J400" s="2" t="s">
+      <c r="D400" s="5"/>
+      <c r="E400" s="5"/>
+      <c r="F400" s="5"/>
+      <c r="G400" s="5"/>
+      <c r="H400" s="5"/>
+      <c r="I400" s="5"/>
+      <c r="J400" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="K400" s="2" t="s">
+      <c r="K400" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="L400" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M400" s="2" t="s">
+      <c r="L400" s="7"/>
+      <c r="M400" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N400" s="2" t="s">
+      <c r="N400" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="O400" s="2"/>
-      <c r="P400" s="2"/>
-      <c r="Q400" s="2"/>
-      <c r="R400" s="2"/>
-      <c r="S400" s="2"/>
-      <c r="T400" s="2"/>
-      <c r="U400" s="2" t="s">
+      <c r="O400" s="5"/>
+      <c r="P400" s="5"/>
+      <c r="Q400" s="5"/>
+      <c r="R400" s="5"/>
+      <c r="S400" s="5"/>
+      <c r="T400" s="5"/>
+      <c r="U400" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="V400" s="2" t="s">
+      <c r="V400" s="5" t="s">
         <v>620</v>
       </c>
     </row>
@@ -25508,44 +25332,42 @@
       </c>
     </row>
     <row r="406" spans="1:22">
-      <c r="A406" s="2" t="s">
+      <c r="A406" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B406" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C406" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D406" s="2"/>
-      <c r="E406" s="2"/>
-      <c r="F406" s="2"/>
-      <c r="G406" s="2"/>
-      <c r="H406" s="2"/>
-      <c r="I406" s="2"/>
-      <c r="J406" s="2" t="s">
+      <c r="C406" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D406" s="5"/>
+      <c r="E406" s="5"/>
+      <c r="F406" s="5"/>
+      <c r="G406" s="5"/>
+      <c r="H406" s="5"/>
+      <c r="I406" s="5"/>
+      <c r="J406" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="K406" s="2"/>
-      <c r="L406" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M406" s="2" t="s">
+      <c r="K406" s="5"/>
+      <c r="L406" s="7"/>
+      <c r="M406" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N406" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O406" s="2"/>
-      <c r="P406" s="2"/>
-      <c r="Q406" s="2"/>
-      <c r="R406" s="2"/>
-      <c r="S406" s="2"/>
-      <c r="T406" s="2"/>
-      <c r="U406" s="2" t="s">
+      <c r="N406" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O406" s="5"/>
+      <c r="P406" s="5"/>
+      <c r="Q406" s="5"/>
+      <c r="R406" s="5"/>
+      <c r="S406" s="5"/>
+      <c r="T406" s="5"/>
+      <c r="U406" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="V406" s="2"/>
+      <c r="V406" s="5"/>
     </row>
     <row r="407" spans="1:22">
       <c r="A407" s="2" t="s">
@@ -25938,46 +25760,44 @@
       <c r="V414" s="9"/>
     </row>
     <row r="415" spans="1:22">
-      <c r="A415" s="2" t="s">
+      <c r="A415" s="5" t="s">
         <v>1167</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B415" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C415" s="2" t="s">
+      <c r="C415" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D415" s="2"/>
-      <c r="E415" s="2"/>
-      <c r="F415" s="2"/>
-      <c r="G415" s="2"/>
-      <c r="H415" s="2"/>
-      <c r="I415" s="2"/>
-      <c r="J415" s="2" t="s">
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
+      <c r="H415" s="5"/>
+      <c r="I415" s="5"/>
+      <c r="J415" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="K415" s="2" t="s">
+      <c r="K415" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="L415" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M415" s="2" t="s">
+      <c r="L415" s="7"/>
+      <c r="M415" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N415" s="2" t="s">
+      <c r="N415" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="O415" s="2"/>
-      <c r="P415" s="2"/>
-      <c r="Q415" s="2"/>
-      <c r="R415" s="2"/>
-      <c r="S415" s="2"/>
-      <c r="T415" s="2"/>
-      <c r="U415" s="2" t="s">
+      <c r="O415" s="5"/>
+      <c r="P415" s="5"/>
+      <c r="Q415" s="5"/>
+      <c r="R415" s="5"/>
+      <c r="S415" s="5"/>
+      <c r="T415" s="5"/>
+      <c r="U415" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="V415" s="2" t="s">
+      <c r="V415" s="5" t="s">
         <v>621</v>
       </c>
     </row>
@@ -26410,46 +26230,44 @@
       <c r="V423" s="2"/>
     </row>
     <row r="424" spans="1:22">
-      <c r="A424" s="2" t="s">
+      <c r="A424" s="5" t="s">
         <v>1176</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B424" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C424" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D424" s="2"/>
-      <c r="E424" s="2"/>
-      <c r="F424" s="2"/>
-      <c r="G424" s="2"/>
-      <c r="H424" s="2"/>
-      <c r="I424" s="2"/>
-      <c r="J424" s="2" t="s">
+      <c r="C424" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D424" s="5"/>
+      <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
+      <c r="G424" s="5"/>
+      <c r="H424" s="5"/>
+      <c r="I424" s="5"/>
+      <c r="J424" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="K424" s="2" t="s">
+      <c r="K424" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="L424" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M424" s="2" t="s">
+      <c r="L424" s="7"/>
+      <c r="M424" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N424" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O424" s="2"/>
-      <c r="P424" s="2"/>
-      <c r="Q424" s="2"/>
-      <c r="R424" s="2"/>
-      <c r="S424" s="2"/>
-      <c r="T424" s="2"/>
-      <c r="U424" s="2" t="s">
+      <c r="N424" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O424" s="5"/>
+      <c r="P424" s="5"/>
+      <c r="Q424" s="5"/>
+      <c r="R424" s="5"/>
+      <c r="S424" s="5"/>
+      <c r="T424" s="5"/>
+      <c r="U424" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="V424" s="2" t="s">
+      <c r="V424" s="5" t="s">
         <v>581</v>
       </c>
     </row>
@@ -26801,9 +26619,7 @@
         <v>496</v>
       </c>
       <c r="K431" s="2"/>
-      <c r="L431" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L431" s="7"/>
       <c r="M431" s="2" t="s">
         <v>49</v>
       </c>
@@ -27116,46 +26932,44 @@
       <c r="V437" s="2"/>
     </row>
     <row r="438" spans="1:22">
-      <c r="A438" s="2" t="s">
+      <c r="A438" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="B438" s="2" t="s">
+      <c r="B438" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C438" s="2" t="s">
+      <c r="C438" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D438" s="2"/>
-      <c r="E438" s="2"/>
-      <c r="F438" s="2"/>
-      <c r="G438" s="2"/>
-      <c r="H438" s="2"/>
-      <c r="I438" s="2"/>
-      <c r="J438" s="2" t="s">
+      <c r="D438" s="5"/>
+      <c r="E438" s="5"/>
+      <c r="F438" s="5"/>
+      <c r="G438" s="5"/>
+      <c r="H438" s="5"/>
+      <c r="I438" s="5"/>
+      <c r="J438" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="K438" s="2" t="s">
+      <c r="K438" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="L438" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M438" s="2" t="s">
+      <c r="L438" s="7"/>
+      <c r="M438" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="N438" s="2" t="s">
+      <c r="N438" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="O438" s="2"/>
-      <c r="P438" s="2"/>
-      <c r="Q438" s="2"/>
-      <c r="R438" s="2"/>
-      <c r="S438" s="2"/>
-      <c r="T438" s="2"/>
-      <c r="U438" s="2" t="s">
+      <c r="O438" s="5"/>
+      <c r="P438" s="5"/>
+      <c r="Q438" s="5"/>
+      <c r="R438" s="5"/>
+      <c r="S438" s="5"/>
+      <c r="T438" s="5"/>
+      <c r="U438" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="V438" s="2" t="s">
+      <c r="V438" s="5" t="s">
         <v>623</v>
       </c>
     </row>
@@ -27403,9 +27217,7 @@
         <v>496</v>
       </c>
       <c r="K443" s="2"/>
-      <c r="L443" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L443" s="7"/>
       <c r="M443" s="2" t="s">
         <v>109</v>
       </c>
@@ -27594,46 +27406,44 @@
       </c>
     </row>
     <row r="447" spans="1:22">
-      <c r="A447" s="2" t="s">
+      <c r="A447" s="5" t="s">
         <v>1199</v>
       </c>
-      <c r="B447" s="2" t="s">
+      <c r="B447" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C447" s="2" t="s">
+      <c r="C447" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D447" s="2"/>
-      <c r="E447" s="2"/>
-      <c r="F447" s="2"/>
-      <c r="G447" s="2"/>
-      <c r="H447" s="2"/>
-      <c r="I447" s="2"/>
-      <c r="J447" s="2" t="s">
+      <c r="D447" s="5"/>
+      <c r="E447" s="5"/>
+      <c r="F447" s="5"/>
+      <c r="G447" s="5"/>
+      <c r="H447" s="5"/>
+      <c r="I447" s="5"/>
+      <c r="J447" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="K447" s="2" t="s">
+      <c r="K447" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="L447" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M447" s="2" t="s">
+      <c r="L447" s="7"/>
+      <c r="M447" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="N447" s="2" t="s">
+      <c r="N447" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="O447" s="2"/>
-      <c r="P447" s="2"/>
-      <c r="Q447" s="2"/>
-      <c r="R447" s="2"/>
-      <c r="S447" s="2"/>
-      <c r="T447" s="2"/>
-      <c r="U447" s="2" t="s">
+      <c r="O447" s="5"/>
+      <c r="P447" s="5"/>
+      <c r="Q447" s="5"/>
+      <c r="R447" s="5"/>
+      <c r="S447" s="5"/>
+      <c r="T447" s="5"/>
+      <c r="U447" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="V447" s="2" t="s">
+      <c r="V447" s="5" t="s">
         <v>623</v>
       </c>
     </row>
@@ -27881,9 +27691,7 @@
         <v>496</v>
       </c>
       <c r="K452" s="2"/>
-      <c r="L452" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L452" s="7"/>
       <c r="M452" s="2" t="s">
         <v>110</v>
       </c>
@@ -28292,46 +28100,44 @@
       </c>
     </row>
     <row r="460" spans="1:22">
-      <c r="A460" s="2" t="s">
+      <c r="A460" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="B460" s="2" t="s">
+      <c r="B460" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C460" s="2" t="s">
+      <c r="C460" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D460" s="2"/>
-      <c r="E460" s="2"/>
-      <c r="F460" s="2"/>
-      <c r="G460" s="2"/>
-      <c r="H460" s="2"/>
-      <c r="I460" s="2"/>
-      <c r="J460" s="2" t="s">
+      <c r="D460" s="5"/>
+      <c r="E460" s="5"/>
+      <c r="F460" s="5"/>
+      <c r="G460" s="5"/>
+      <c r="H460" s="5"/>
+      <c r="I460" s="5"/>
+      <c r="J460" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="K460" s="2" t="s">
+      <c r="K460" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="L460" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M460" s="2" t="s">
+      <c r="L460" s="7"/>
+      <c r="M460" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="N460" s="2" t="s">
+      <c r="N460" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="O460" s="2"/>
-      <c r="P460" s="2"/>
-      <c r="Q460" s="2"/>
-      <c r="R460" s="2"/>
-      <c r="S460" s="2"/>
-      <c r="T460" s="2"/>
-      <c r="U460" s="2" t="s">
+      <c r="O460" s="5"/>
+      <c r="P460" s="5"/>
+      <c r="Q460" s="5"/>
+      <c r="R460" s="5"/>
+      <c r="S460" s="5"/>
+      <c r="T460" s="5"/>
+      <c r="U460" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="V460" s="2" t="s">
+      <c r="V460" s="5" t="s">
         <v>623</v>
       </c>
     </row>
@@ -28579,9 +28385,7 @@
         <v>496</v>
       </c>
       <c r="K465" s="2"/>
-      <c r="L465" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L465" s="7"/>
       <c r="M465" s="2" t="s">
         <v>111</v>
       </c>
@@ -28828,46 +28632,44 @@
       <c r="V469" s="2"/>
     </row>
     <row r="470" spans="1:22">
-      <c r="A470" s="2" t="s">
+      <c r="A470" s="5" t="s">
         <v>1222</v>
       </c>
-      <c r="B470" s="2" t="s">
+      <c r="B470" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C470" s="2" t="s">
+      <c r="C470" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D470" s="2"/>
-      <c r="E470" s="2"/>
-      <c r="F470" s="2"/>
-      <c r="G470" s="2"/>
-      <c r="H470" s="2"/>
-      <c r="I470" s="2"/>
-      <c r="J470" s="2" t="s">
+      <c r="D470" s="5"/>
+      <c r="E470" s="5"/>
+      <c r="F470" s="5"/>
+      <c r="G470" s="5"/>
+      <c r="H470" s="5"/>
+      <c r="I470" s="5"/>
+      <c r="J470" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="K470" s="2" t="s">
+      <c r="K470" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="L470" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M470" s="2" t="s">
+      <c r="L470" s="7"/>
+      <c r="M470" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="N470" s="2" t="s">
+      <c r="N470" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="O470" s="2"/>
-      <c r="P470" s="2"/>
-      <c r="Q470" s="2"/>
-      <c r="R470" s="2"/>
-      <c r="S470" s="2"/>
-      <c r="T470" s="2"/>
-      <c r="U470" s="2" t="s">
+      <c r="O470" s="5"/>
+      <c r="P470" s="5"/>
+      <c r="Q470" s="5"/>
+      <c r="R470" s="5"/>
+      <c r="S470" s="5"/>
+      <c r="T470" s="5"/>
+      <c r="U470" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="V470" s="2" t="s">
+      <c r="V470" s="5" t="s">
         <v>623</v>
       </c>
     </row>
@@ -29115,9 +28917,7 @@
         <v>496</v>
       </c>
       <c r="K475" s="2"/>
-      <c r="L475" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="L475" s="7"/>
       <c r="M475" s="2" t="s">
         <v>112</v>
       </c>
@@ -29364,46 +29164,44 @@
       <c r="V479" s="2"/>
     </row>
     <row r="480" spans="1:22">
-      <c r="A480" s="2" t="s">
+      <c r="A480" s="5" t="s">
         <v>1232</v>
       </c>
-      <c r="B480" s="2" t="s">
+      <c r="B480" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C480" s="2" t="s">
+      <c r="C480" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D480" s="2"/>
-      <c r="E480" s="2"/>
-      <c r="F480" s="2"/>
-      <c r="G480" s="2"/>
-      <c r="H480" s="2"/>
-      <c r="I480" s="2"/>
-      <c r="J480" s="2" t="s">
+      <c r="D480" s="5"/>
+      <c r="E480" s="5"/>
+      <c r="F480" s="5"/>
+      <c r="G480" s="5"/>
+      <c r="H480" s="5"/>
+      <c r="I480" s="5"/>
+      <c r="J480" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="K480" s="2" t="s">
+      <c r="K480" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="L480" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="M480" s="2" t="s">
+      <c r="L480" s="7"/>
+      <c r="M480" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N480" s="2" t="s">
+      <c r="N480" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="O480" s="2"/>
-      <c r="P480" s="2"/>
-      <c r="Q480" s="2"/>
-      <c r="R480" s="2"/>
-      <c r="S480" s="2"/>
-      <c r="T480" s="2"/>
-      <c r="U480" s="2" t="s">
+      <c r="O480" s="5"/>
+      <c r="P480" s="5"/>
+      <c r="Q480" s="5"/>
+      <c r="R480" s="5"/>
+      <c r="S480" s="5"/>
+      <c r="T480" s="5"/>
+      <c r="U480" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="V480" s="2" t="s">
+      <c r="V480" s="5" t="s">
         <v>625</v>
       </c>
     </row>
